--- a/Saved VT6 Positions.xlsx
+++ b/Saved VT6 Positions.xlsx
@@ -5,16 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ec09d22e58ee0bea/Desktop/Robothon/Robothon 2023/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3f72d385c8764585/Documents/GitHub/Robothon2023/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="52" documentId="8_{20C170EF-01BD-4BD6-B93D-8A58063CF03F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BC56E839-1D98-4F49-A9C5-310E0F7B03BA}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BDB500B0-C4EA-4238-A41A-73CDACD23F4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{7EE35D8F-41E2-4E1E-9F41-8F1A66E160F7}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{7EE35D8F-41E2-4E1E-9F41-8F1A66E160F7}"/>
   </bookViews>
   <sheets>
-    <sheet name="World Coordinates Refrence" sheetId="1" r:id="rId1"/>
-    <sheet name="Local Coordinates" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <t>Home_Pos</t>
   </si>
@@ -96,9 +95,6 @@
     <t>Door_Orginal_Pick</t>
   </si>
   <si>
-    <t>Approach_Probe_OrginalPos</t>
-  </si>
-  <si>
     <t>Pickingup_Probe_orginalPos</t>
   </si>
   <si>
@@ -216,13 +212,25 @@
     <t>Wrist</t>
   </si>
   <si>
-    <t>Slider_EndPos</t>
-  </si>
-  <si>
-    <t>Finish_clicking_Probe</t>
-  </si>
-  <si>
-    <t>Click_Probe_Inside</t>
+    <t>Door0</t>
+  </si>
+  <si>
+    <t>Door1</t>
+  </si>
+  <si>
+    <t>Door2</t>
+  </si>
+  <si>
+    <t>Door3</t>
+  </si>
+  <si>
+    <t>Door4</t>
+  </si>
+  <si>
+    <t>Door5</t>
+  </si>
+  <si>
+    <t>Door6</t>
   </si>
 </sst>
 </file>
@@ -588,56 +596,56 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36B92CC3-4BB9-4098-B2BD-29967284967F}">
   <dimension ref="A1:U1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="178" zoomScaleNormal="178" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="1"/>
-    <col min="2" max="2" width="27.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="8.73046875" style="1"/>
+    <col min="2" max="2" width="27.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.73046875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -702,7 +710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -767,7 +775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -832,7 +840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -897,7 +905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -962,7 +970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1027,7 +1035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1092,7 +1100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1157,7 +1165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1222,7 +1230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1287,7 +1295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1352,7 +1360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1417,7 +1425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1482,7 +1490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1547,7 +1555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1612,7 +1620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -1677,7 +1685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -1742,7 +1750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -1807,7 +1815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -1872,30 +1880,420 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C46" s="1">
+        <v>-544.072</v>
+      </c>
+      <c r="D46" s="1">
+        <v>131.661</v>
+      </c>
+      <c r="E46" s="1">
+        <v>519.34799999999996</v>
+      </c>
+      <c r="F46" s="1">
+        <v>-4.0449999999999999</v>
+      </c>
+      <c r="G46" s="1">
+        <v>-1.3120000000000001</v>
+      </c>
+      <c r="H46" s="1">
+        <v>-178.94399999999999</v>
+      </c>
+      <c r="I46" s="1">
+        <v>0</v>
+      </c>
+      <c r="J46" s="1">
+        <v>0</v>
+      </c>
+      <c r="K46" s="1">
+        <v>0</v>
+      </c>
+      <c r="L46" s="1">
+        <v>0</v>
+      </c>
+      <c r="M46" s="1">
+        <v>1</v>
+      </c>
+      <c r="N46" s="1">
+        <v>1</v>
+      </c>
+      <c r="O46" s="1">
+        <v>1</v>
+      </c>
+      <c r="P46" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="1">
+        <v>0</v>
+      </c>
+      <c r="R46" s="1">
+        <v>0</v>
+      </c>
+      <c r="S46" s="1">
+        <v>0</v>
+      </c>
+      <c r="T46" s="1">
+        <v>0</v>
+      </c>
+      <c r="U46" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C47" s="1">
+        <v>-543.74400000000003</v>
+      </c>
+      <c r="D47" s="1">
+        <v>122.58199999999999</v>
+      </c>
+      <c r="E47" s="1">
+        <v>520.96100000000001</v>
+      </c>
+      <c r="F47" s="1">
+        <v>-4.0449999999999999</v>
+      </c>
+      <c r="G47" s="1">
+        <v>-1.3120000000000001</v>
+      </c>
+      <c r="H47" s="1">
+        <v>-178.94399999999999</v>
+      </c>
+      <c r="I47" s="1">
+        <v>0</v>
+      </c>
+      <c r="J47" s="1">
+        <v>0</v>
+      </c>
+      <c r="K47" s="1">
+        <v>0</v>
+      </c>
+      <c r="L47" s="1">
+        <v>0</v>
+      </c>
+      <c r="M47" s="1">
+        <v>1</v>
+      </c>
+      <c r="N47" s="1">
+        <v>1</v>
+      </c>
+      <c r="O47" s="1">
+        <v>1</v>
+      </c>
+      <c r="P47" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="1">
+        <v>0</v>
+      </c>
+      <c r="R47" s="1">
+        <v>0</v>
+      </c>
+      <c r="S47" s="1">
+        <v>0</v>
+      </c>
+      <c r="T47" s="1">
+        <v>0</v>
+      </c>
+      <c r="U47" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C48" s="1">
+        <v>-536.74400000000003</v>
+      </c>
+      <c r="D48" s="1">
+        <v>122.581</v>
+      </c>
+      <c r="E48" s="1">
+        <v>549.96100000000001</v>
+      </c>
+      <c r="F48" s="1">
+        <v>-4.0449999999999999</v>
+      </c>
+      <c r="G48" s="1">
+        <v>-1.3120000000000001</v>
+      </c>
+      <c r="H48" s="1">
+        <v>-178.94399999999999</v>
+      </c>
+      <c r="I48" s="1">
+        <v>0</v>
+      </c>
+      <c r="J48" s="1">
+        <v>0</v>
+      </c>
+      <c r="K48" s="1">
+        <v>0</v>
+      </c>
+      <c r="L48" s="1">
+        <v>0</v>
+      </c>
+      <c r="M48" s="1">
+        <v>1</v>
+      </c>
+      <c r="N48" s="1">
+        <v>1</v>
+      </c>
+      <c r="O48" s="1">
+        <v>1</v>
+      </c>
+      <c r="P48" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="1">
+        <v>0</v>
+      </c>
+      <c r="R48" s="1">
+        <v>0</v>
+      </c>
+      <c r="S48" s="1">
+        <v>0</v>
+      </c>
+      <c r="T48" s="1">
+        <v>0</v>
+      </c>
+      <c r="U48" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C49" s="1">
+        <v>-514.74400000000003</v>
+      </c>
+      <c r="D49" s="1">
+        <v>122.58</v>
+      </c>
+      <c r="E49" s="1">
+        <v>570.95699999999999</v>
+      </c>
+      <c r="F49" s="1">
+        <v>-4.0449999999999999</v>
+      </c>
+      <c r="G49" s="1">
+        <v>-1.3120000000000001</v>
+      </c>
+      <c r="H49" s="1">
+        <v>-178.94399999999999</v>
+      </c>
+      <c r="I49" s="1">
+        <v>0</v>
+      </c>
+      <c r="J49" s="1">
+        <v>0</v>
+      </c>
+      <c r="K49" s="1">
+        <v>0</v>
+      </c>
+      <c r="L49" s="1">
+        <v>0</v>
+      </c>
+      <c r="M49" s="1">
+        <v>1</v>
+      </c>
+      <c r="N49" s="1">
+        <v>1</v>
+      </c>
+      <c r="O49" s="1">
+        <v>1</v>
+      </c>
+      <c r="P49" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="1">
+        <v>0</v>
+      </c>
+      <c r="R49" s="1">
+        <v>0</v>
+      </c>
+      <c r="S49" s="1">
+        <v>0</v>
+      </c>
+      <c r="T49" s="1">
+        <v>0</v>
+      </c>
+      <c r="U49" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C50" s="1">
+        <v>-486.74400000000003</v>
+      </c>
+      <c r="D50" s="1">
+        <v>122.58</v>
+      </c>
+      <c r="E50" s="1">
+        <v>576.95699999999999</v>
+      </c>
+      <c r="F50" s="1">
+        <v>-4.0449999999999999</v>
+      </c>
+      <c r="G50" s="1">
+        <v>-1.3120000000000001</v>
+      </c>
+      <c r="H50" s="1">
+        <v>-178.94399999999999</v>
+      </c>
+      <c r="I50" s="1">
+        <v>0</v>
+      </c>
+      <c r="J50" s="1">
+        <v>0</v>
+      </c>
+      <c r="K50" s="1">
+        <v>0</v>
+      </c>
+      <c r="L50" s="1">
+        <v>0</v>
+      </c>
+      <c r="M50" s="1">
+        <v>1</v>
+      </c>
+      <c r="N50" s="1">
+        <v>1</v>
+      </c>
+      <c r="O50" s="1">
+        <v>1</v>
+      </c>
+      <c r="P50" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="1">
+        <v>0</v>
+      </c>
+      <c r="R50" s="1">
+        <v>0</v>
+      </c>
+      <c r="S50" s="1">
+        <v>0</v>
+      </c>
+      <c r="T50" s="1">
+        <v>0</v>
+      </c>
+      <c r="U50" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C51" s="1">
+        <v>-451.339</v>
+      </c>
+      <c r="D51" s="1">
+        <v>122.57899999999999</v>
+      </c>
+      <c r="E51" s="1">
+        <v>576.95699999999999</v>
+      </c>
+      <c r="F51" s="1">
+        <v>-4.0449999999999999</v>
+      </c>
+      <c r="G51" s="1">
+        <v>-1.3120000000000001</v>
+      </c>
+      <c r="H51" s="1">
+        <v>-178.94499999999999</v>
+      </c>
+      <c r="I51" s="1">
+        <v>0</v>
+      </c>
+      <c r="J51" s="1">
+        <v>0</v>
+      </c>
+      <c r="K51" s="1">
+        <v>0</v>
+      </c>
+      <c r="L51" s="1">
+        <v>0</v>
+      </c>
+      <c r="M51" s="1">
+        <v>1</v>
+      </c>
+      <c r="N51" s="1">
+        <v>1</v>
+      </c>
+      <c r="O51" s="1">
+        <v>1</v>
+      </c>
+      <c r="P51" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="1">
+        <v>0</v>
+      </c>
+      <c r="R51" s="1">
+        <v>0</v>
+      </c>
+      <c r="S51" s="1">
+        <v>0</v>
+      </c>
+      <c r="T51" s="1">
+        <v>0</v>
+      </c>
+      <c r="U51" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="C52" s="1">
-        <v>-554.48800000000006</v>
+        <v>-451.339</v>
       </c>
       <c r="D52" s="1">
-        <v>78.614999999999995</v>
+        <v>122.57899999999999</v>
       </c>
       <c r="E52" s="1">
-        <v>559.24400000000003</v>
+        <v>617.83100000000002</v>
       </c>
       <c r="F52" s="1">
-        <v>2.3E-2</v>
+        <v>-4.0449999999999999</v>
       </c>
       <c r="G52" s="1">
-        <v>-1E-3</v>
+        <v>-1.3120000000000001</v>
       </c>
       <c r="H52" s="1">
-        <v>-179.99799999999999</v>
+        <v>-178.94499999999999</v>
       </c>
       <c r="I52" s="1">
         <v>0</v>
@@ -1937,12 +2335,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C53" s="1">
         <v>-554.48800000000006</v>
@@ -2002,12 +2400,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C54" s="1">
         <v>-605.74099999999999</v>
@@ -2067,12 +2465,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C55" s="1">
         <v>-605.74099999999999</v>
@@ -2132,12 +2530,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C56" s="1">
         <v>-610.60699999999997</v>
@@ -2197,12 +2595,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C57" s="1">
         <v>-505.32100000000003</v>
@@ -2262,12 +2660,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C58" s="1">
         <v>-505.32</v>
@@ -2327,12 +2725,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C59" s="1">
         <v>-505.32100000000003</v>
@@ -2392,12 +2790,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C60" s="1">
         <v>-605.74099999999999</v>
@@ -2457,12 +2855,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C61" s="1">
         <v>-630.55100000000004</v>
@@ -2522,12 +2920,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C62" s="1">
         <v>-630.55100000000004</v>
@@ -2587,12 +2985,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C63" s="1">
         <v>-630.55100000000004</v>
@@ -2652,12 +3050,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A72" s="1">
         <v>70</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C72" s="1">
         <v>-643.16</v>
@@ -2717,12 +3115,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A73" s="1">
         <v>71</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C73" s="1">
         <v>-643.16</v>
@@ -2782,12 +3180,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A74" s="1">
         <v>72</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C74" s="1">
         <v>-684.45</v>
@@ -2847,12 +3245,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A75" s="1">
         <v>73</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C75" s="1">
         <v>-684.45</v>
@@ -2912,12 +3310,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A76" s="1">
         <v>74</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C76" s="1">
         <v>-652.06200000000001</v>
@@ -2977,12 +3375,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A77" s="1">
         <v>75</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C77" s="1">
         <v>-652.06200000000001</v>
@@ -3042,12 +3440,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A78" s="1">
         <v>76</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C78" s="1">
         <v>-675.875</v>
@@ -3107,12 +3505,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A79" s="1">
         <v>77</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C79" s="1">
         <v>-675.875</v>
@@ -3172,12 +3570,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A80" s="1">
         <v>78</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C80" s="1">
         <v>-675.875</v>
@@ -3237,12 +3635,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A81" s="1">
         <v>79</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C81" s="1">
         <v>-638.44500000000005</v>
@@ -3302,12 +3700,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A82" s="1">
         <v>80</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C82" s="1">
         <v>-638.44500000000005</v>
@@ -3367,12 +3765,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="997" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="997" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A997" s="1">
         <v>995</v>
       </c>
       <c r="B997" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C997" s="1">
         <v>-350</v>
@@ -3432,12 +3830,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="998" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="998" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A998" s="1">
         <v>996</v>
       </c>
       <c r="B998" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C998" s="1">
         <v>-550</v>
@@ -3497,12 +3895,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="999" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="999" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A999" s="1">
         <v>997</v>
       </c>
       <c r="B999" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C999" s="1">
         <v>-550</v>
@@ -3562,12 +3960,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1000" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="1000" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A1000" s="1">
         <v>998</v>
       </c>
       <c r="B1000" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C1000" s="1">
         <v>-350</v>
@@ -3627,12 +4025,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1001" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="1001" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A1001" s="1">
         <v>999</v>
       </c>
       <c r="B1001" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C1001" s="1">
         <v>-450</v>
@@ -3689,3182 +4087,6 @@
         <v>0</v>
       </c>
       <c r="U1001" s="1">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{499AC510-68EA-4CE4-9B30-ABEA28BF0401}">
-  <dimension ref="A1:U1001"/>
-  <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="I83" sqref="I83"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="27.1796875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>77.817999999999998</v>
-      </c>
-      <c r="D2">
-        <v>112.596</v>
-      </c>
-      <c r="E2">
-        <v>75.197999999999993</v>
-      </c>
-      <c r="F2">
-        <v>-179.977</v>
-      </c>
-      <c r="G2">
-        <v>-1E-3</v>
-      </c>
-      <c r="H2">
-        <v>-179.99799999999999</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
-      <c r="M2">
-        <v>1</v>
-      </c>
-      <c r="N2">
-        <v>1</v>
-      </c>
-      <c r="O2">
-        <v>1</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>77.819000000000003</v>
-      </c>
-      <c r="D3">
-        <v>-10.445</v>
-      </c>
-      <c r="E3">
-        <v>300.49</v>
-      </c>
-      <c r="F3">
-        <v>177.608</v>
-      </c>
-      <c r="G3">
-        <v>-1E-3</v>
-      </c>
-      <c r="H3">
-        <v>-179.999</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>1</v>
-      </c>
-      <c r="N3">
-        <v>1</v>
-      </c>
-      <c r="O3">
-        <v>1</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
-      <c r="U3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11">
-        <v>25.172999999999998</v>
-      </c>
-      <c r="D11">
-        <v>13.907999999999999</v>
-      </c>
-      <c r="E11">
-        <v>39.780999999999999</v>
-      </c>
-      <c r="F11">
-        <v>89.995000000000005</v>
-      </c>
-      <c r="G11">
-        <v>-2E-3</v>
-      </c>
-      <c r="H11">
-        <v>-179.999</v>
-      </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>1</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11">
-        <v>1</v>
-      </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-      <c r="R11">
-        <v>0</v>
-      </c>
-      <c r="S11">
-        <v>1</v>
-      </c>
-      <c r="T11">
-        <v>0</v>
-      </c>
-      <c r="U11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12">
-        <v>25.172999999999998</v>
-      </c>
-      <c r="D12">
-        <v>13.909000000000001</v>
-      </c>
-      <c r="E12">
-        <v>-22.777000000000001</v>
-      </c>
-      <c r="F12">
-        <v>89.994</v>
-      </c>
-      <c r="G12">
-        <v>-3.0000000000000001E-3</v>
-      </c>
-      <c r="H12">
-        <v>-179.999</v>
-      </c>
-      <c r="I12">
-        <v>1</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>1</v>
-      </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="O12">
-        <v>1</v>
-      </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-      <c r="R12">
-        <v>0</v>
-      </c>
-      <c r="S12">
-        <v>1</v>
-      </c>
-      <c r="T12">
-        <v>0</v>
-      </c>
-      <c r="U12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A13">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13">
-        <v>104.785</v>
-      </c>
-      <c r="D13">
-        <v>14.159000000000001</v>
-      </c>
-      <c r="E13">
-        <v>14.898</v>
-      </c>
-      <c r="F13">
-        <v>89.995000000000005</v>
-      </c>
-      <c r="G13">
-        <v>-3.0000000000000001E-3</v>
-      </c>
-      <c r="H13">
-        <v>-179.999</v>
-      </c>
-      <c r="I13">
-        <v>1</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>1</v>
-      </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-      <c r="O13">
-        <v>1</v>
-      </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-      <c r="R13">
-        <v>0</v>
-      </c>
-      <c r="S13">
-        <v>1</v>
-      </c>
-      <c r="T13">
-        <v>0</v>
-      </c>
-      <c r="U13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A14">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14">
-        <v>104.785</v>
-      </c>
-      <c r="D14">
-        <v>14.159000000000001</v>
-      </c>
-      <c r="E14">
-        <v>-32.875</v>
-      </c>
-      <c r="F14">
-        <v>89.995000000000005</v>
-      </c>
-      <c r="G14">
-        <v>-3.0000000000000001E-3</v>
-      </c>
-      <c r="H14">
-        <v>-179.999</v>
-      </c>
-      <c r="I14">
-        <v>1</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>1</v>
-      </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="O14">
-        <v>1</v>
-      </c>
-      <c r="P14">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>0</v>
-      </c>
-      <c r="R14">
-        <v>0</v>
-      </c>
-      <c r="S14">
-        <v>1</v>
-      </c>
-      <c r="T14">
-        <v>0</v>
-      </c>
-      <c r="U14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A15">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15">
-        <v>91.248000000000005</v>
-      </c>
-      <c r="D15">
-        <v>14.16</v>
-      </c>
-      <c r="E15">
-        <v>-34.1</v>
-      </c>
-      <c r="F15">
-        <v>89.995000000000005</v>
-      </c>
-      <c r="G15">
-        <v>-4.0000000000000001E-3</v>
-      </c>
-      <c r="H15">
-        <v>-179.999</v>
-      </c>
-      <c r="I15">
-        <v>1</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>1</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15">
-        <v>1</v>
-      </c>
-      <c r="P15">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>0</v>
-      </c>
-      <c r="R15">
-        <v>0</v>
-      </c>
-      <c r="S15">
-        <v>1</v>
-      </c>
-      <c r="T15">
-        <v>0</v>
-      </c>
-      <c r="U15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A22">
-        <v>20</v>
-      </c>
-      <c r="B22" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22">
-        <v>-33.290999999999997</v>
-      </c>
-      <c r="D22">
-        <v>56.165999999999997</v>
-      </c>
-      <c r="E22">
-        <v>203.87100000000001</v>
-      </c>
-      <c r="F22">
-        <v>88.513000000000005</v>
-      </c>
-      <c r="G22">
-        <v>-5.0000000000000001E-3</v>
-      </c>
-      <c r="H22">
-        <v>179.99799999999999</v>
-      </c>
-      <c r="I22">
-        <v>1</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>1</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>1</v>
-      </c>
-      <c r="P22">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>0</v>
-      </c>
-      <c r="R22">
-        <v>0</v>
-      </c>
-      <c r="S22">
-        <v>1</v>
-      </c>
-      <c r="T22">
-        <v>0</v>
-      </c>
-      <c r="U22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A23">
-        <v>21</v>
-      </c>
-      <c r="B23" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23">
-        <v>16.206</v>
-      </c>
-      <c r="D23">
-        <v>61.017000000000003</v>
-      </c>
-      <c r="E23">
-        <v>14.502000000000001</v>
-      </c>
-      <c r="F23">
-        <v>89.994</v>
-      </c>
-      <c r="G23">
-        <v>-3.0000000000000001E-3</v>
-      </c>
-      <c r="H23">
-        <v>180</v>
-      </c>
-      <c r="I23">
-        <v>1</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>1</v>
-      </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="O23">
-        <v>1</v>
-      </c>
-      <c r="P23">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>0</v>
-      </c>
-      <c r="R23">
-        <v>0</v>
-      </c>
-      <c r="S23">
-        <v>1</v>
-      </c>
-      <c r="T23">
-        <v>0</v>
-      </c>
-      <c r="U23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A24">
-        <v>22</v>
-      </c>
-      <c r="B24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24">
-        <v>16.206</v>
-      </c>
-      <c r="D24">
-        <v>61.017000000000003</v>
-      </c>
-      <c r="E24">
-        <v>-36.210999999999999</v>
-      </c>
-      <c r="F24">
-        <v>89.994</v>
-      </c>
-      <c r="G24">
-        <v>-3.0000000000000001E-3</v>
-      </c>
-      <c r="H24">
-        <v>180</v>
-      </c>
-      <c r="I24">
-        <v>1</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>1</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-      <c r="O24">
-        <v>1</v>
-      </c>
-      <c r="P24">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>0</v>
-      </c>
-      <c r="R24">
-        <v>0</v>
-      </c>
-      <c r="S24">
-        <v>1</v>
-      </c>
-      <c r="T24">
-        <v>0</v>
-      </c>
-      <c r="U24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A25">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>59</v>
-      </c>
-      <c r="C25">
-        <v>50.396999999999998</v>
-      </c>
-      <c r="D25">
-        <v>61.017000000000003</v>
-      </c>
-      <c r="E25">
-        <v>-36.210999999999999</v>
-      </c>
-      <c r="F25">
-        <v>89.994</v>
-      </c>
-      <c r="G25">
-        <v>-3.0000000000000001E-3</v>
-      </c>
-      <c r="H25">
-        <v>180</v>
-      </c>
-      <c r="I25">
-        <v>1</v>
-      </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
-      <c r="K25">
-        <v>0</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>1</v>
-      </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="O25">
-        <v>1</v>
-      </c>
-      <c r="P25">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>0</v>
-      </c>
-      <c r="R25">
-        <v>0</v>
-      </c>
-      <c r="S25">
-        <v>1</v>
-      </c>
-      <c r="T25">
-        <v>0</v>
-      </c>
-      <c r="U25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A31">
-        <v>29</v>
-      </c>
-      <c r="B31" t="s">
-        <v>10</v>
-      </c>
-      <c r="C31">
-        <v>112.95399999999999</v>
-      </c>
-      <c r="D31">
-        <v>81.207999999999998</v>
-      </c>
-      <c r="E31">
-        <v>14.468</v>
-      </c>
-      <c r="F31">
-        <v>177.81800000000001</v>
-      </c>
-      <c r="G31">
-        <v>-3.0000000000000001E-3</v>
-      </c>
-      <c r="H31">
-        <v>180</v>
-      </c>
-      <c r="I31">
-        <v>1</v>
-      </c>
-      <c r="J31">
-        <v>0</v>
-      </c>
-      <c r="K31">
-        <v>0</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>1</v>
-      </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-      <c r="O31">
-        <v>1</v>
-      </c>
-      <c r="P31">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>0</v>
-      </c>
-      <c r="R31">
-        <v>0</v>
-      </c>
-      <c r="S31">
-        <v>0</v>
-      </c>
-      <c r="T31">
-        <v>0</v>
-      </c>
-      <c r="U31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A32">
-        <v>30</v>
-      </c>
-      <c r="B32" t="s">
-        <v>11</v>
-      </c>
-      <c r="C32">
-        <v>112.95399999999999</v>
-      </c>
-      <c r="D32">
-        <v>81.207999999999998</v>
-      </c>
-      <c r="E32">
-        <v>-34.820999999999998</v>
-      </c>
-      <c r="F32">
-        <v>177.81800000000001</v>
-      </c>
-      <c r="G32">
-        <v>-3.0000000000000001E-3</v>
-      </c>
-      <c r="H32">
-        <v>180</v>
-      </c>
-      <c r="I32">
-        <v>1</v>
-      </c>
-      <c r="J32">
-        <v>0</v>
-      </c>
-      <c r="K32">
-        <v>0</v>
-      </c>
-      <c r="L32">
-        <v>1</v>
-      </c>
-      <c r="M32">
-        <v>1</v>
-      </c>
-      <c r="N32">
-        <v>1</v>
-      </c>
-      <c r="O32">
-        <v>1</v>
-      </c>
-      <c r="P32">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>0</v>
-      </c>
-      <c r="R32">
-        <v>0</v>
-      </c>
-      <c r="S32">
-        <v>0</v>
-      </c>
-      <c r="T32">
-        <v>0</v>
-      </c>
-      <c r="U32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A33">
-        <v>31</v>
-      </c>
-      <c r="B33" t="s">
-        <v>12</v>
-      </c>
-      <c r="C33">
-        <v>112.95399999999999</v>
-      </c>
-      <c r="D33">
-        <v>81.207999999999998</v>
-      </c>
-      <c r="E33">
-        <v>-5.391</v>
-      </c>
-      <c r="F33">
-        <v>177.81800000000001</v>
-      </c>
-      <c r="G33">
-        <v>-3.0000000000000001E-3</v>
-      </c>
-      <c r="H33">
-        <v>180</v>
-      </c>
-      <c r="I33">
-        <v>1</v>
-      </c>
-      <c r="J33">
-        <v>0</v>
-      </c>
-      <c r="K33">
-        <v>0</v>
-      </c>
-      <c r="L33">
-        <v>1</v>
-      </c>
-      <c r="M33">
-        <v>1</v>
-      </c>
-      <c r="N33">
-        <v>1</v>
-      </c>
-      <c r="O33">
-        <v>1</v>
-      </c>
-      <c r="P33">
-        <v>0</v>
-      </c>
-      <c r="Q33">
-        <v>0</v>
-      </c>
-      <c r="R33">
-        <v>0</v>
-      </c>
-      <c r="S33">
-        <v>0</v>
-      </c>
-      <c r="T33">
-        <v>0</v>
-      </c>
-      <c r="U33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A34">
-        <v>32</v>
-      </c>
-      <c r="B34" t="s">
-        <v>13</v>
-      </c>
-      <c r="C34">
-        <v>82.38</v>
-      </c>
-      <c r="D34">
-        <v>80.195999999999998</v>
-      </c>
-      <c r="E34">
-        <v>14.356</v>
-      </c>
-      <c r="F34">
-        <v>177.81800000000001</v>
-      </c>
-      <c r="G34">
-        <v>-3.0000000000000001E-3</v>
-      </c>
-      <c r="H34">
-        <v>180</v>
-      </c>
-      <c r="I34">
-        <v>1</v>
-      </c>
-      <c r="J34">
-        <v>0</v>
-      </c>
-      <c r="K34">
-        <v>0</v>
-      </c>
-      <c r="L34">
-        <v>1</v>
-      </c>
-      <c r="M34">
-        <v>1</v>
-      </c>
-      <c r="N34">
-        <v>1</v>
-      </c>
-      <c r="O34">
-        <v>1</v>
-      </c>
-      <c r="P34">
-        <v>0</v>
-      </c>
-      <c r="Q34">
-        <v>0</v>
-      </c>
-      <c r="R34">
-        <v>0</v>
-      </c>
-      <c r="S34">
-        <v>0</v>
-      </c>
-      <c r="T34">
-        <v>0</v>
-      </c>
-      <c r="U34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A35">
-        <v>33</v>
-      </c>
-      <c r="B35" t="s">
-        <v>14</v>
-      </c>
-      <c r="C35">
-        <v>82.38</v>
-      </c>
-      <c r="D35">
-        <v>80.195999999999998</v>
-      </c>
-      <c r="E35">
-        <v>-32.710999999999999</v>
-      </c>
-      <c r="F35">
-        <v>177.81800000000001</v>
-      </c>
-      <c r="G35">
-        <v>-3.0000000000000001E-3</v>
-      </c>
-      <c r="H35">
-        <v>180</v>
-      </c>
-      <c r="I35">
-        <v>1</v>
-      </c>
-      <c r="J35">
-        <v>0</v>
-      </c>
-      <c r="K35">
-        <v>0</v>
-      </c>
-      <c r="L35">
-        <v>1</v>
-      </c>
-      <c r="M35">
-        <v>1</v>
-      </c>
-      <c r="N35">
-        <v>1</v>
-      </c>
-      <c r="O35">
-        <v>1</v>
-      </c>
-      <c r="P35">
-        <v>0</v>
-      </c>
-      <c r="Q35">
-        <v>0</v>
-      </c>
-      <c r="R35">
-        <v>0</v>
-      </c>
-      <c r="S35">
-        <v>0</v>
-      </c>
-      <c r="T35">
-        <v>0</v>
-      </c>
-      <c r="U35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A36">
-        <v>34</v>
-      </c>
-      <c r="B36" t="s">
-        <v>15</v>
-      </c>
-      <c r="C36">
-        <v>82.38</v>
-      </c>
-      <c r="D36">
-        <v>80.197000000000003</v>
-      </c>
-      <c r="E36">
-        <v>-32.710999999999999</v>
-      </c>
-      <c r="F36">
-        <v>144.346</v>
-      </c>
-      <c r="G36">
-        <v>-3.0000000000000001E-3</v>
-      </c>
-      <c r="H36">
-        <v>180</v>
-      </c>
-      <c r="I36">
-        <v>1</v>
-      </c>
-      <c r="J36">
-        <v>0</v>
-      </c>
-      <c r="K36">
-        <v>0</v>
-      </c>
-      <c r="L36">
-        <v>1</v>
-      </c>
-      <c r="M36">
-        <v>1</v>
-      </c>
-      <c r="N36">
-        <v>1</v>
-      </c>
-      <c r="O36">
-        <v>1</v>
-      </c>
-      <c r="P36">
-        <v>0</v>
-      </c>
-      <c r="Q36">
-        <v>0</v>
-      </c>
-      <c r="R36">
-        <v>0</v>
-      </c>
-      <c r="S36">
-        <v>1</v>
-      </c>
-      <c r="T36">
-        <v>0</v>
-      </c>
-      <c r="U36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A37">
-        <v>35</v>
-      </c>
-      <c r="B37" t="s">
-        <v>16</v>
-      </c>
-      <c r="C37">
-        <v>82.38</v>
-      </c>
-      <c r="D37">
-        <v>80.197000000000003</v>
-      </c>
-      <c r="E37">
-        <v>-6.641</v>
-      </c>
-      <c r="F37">
-        <v>144.346</v>
-      </c>
-      <c r="G37">
-        <v>-3.0000000000000001E-3</v>
-      </c>
-      <c r="H37">
-        <v>180</v>
-      </c>
-      <c r="I37">
-        <v>1</v>
-      </c>
-      <c r="J37">
-        <v>0</v>
-      </c>
-      <c r="K37">
-        <v>0</v>
-      </c>
-      <c r="L37">
-        <v>1</v>
-      </c>
-      <c r="M37">
-        <v>1</v>
-      </c>
-      <c r="N37">
-        <v>1</v>
-      </c>
-      <c r="O37">
-        <v>1</v>
-      </c>
-      <c r="P37">
-        <v>0</v>
-      </c>
-      <c r="Q37">
-        <v>0</v>
-      </c>
-      <c r="R37">
-        <v>0</v>
-      </c>
-      <c r="S37">
-        <v>1</v>
-      </c>
-      <c r="T37">
-        <v>0</v>
-      </c>
-      <c r="U37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A42">
-        <v>40</v>
-      </c>
-      <c r="B42" t="s">
-        <v>17</v>
-      </c>
-      <c r="C42">
-        <v>102.34699999999999</v>
-      </c>
-      <c r="D42">
-        <v>168.214</v>
-      </c>
-      <c r="E42">
-        <v>22.326000000000001</v>
-      </c>
-      <c r="F42">
-        <v>-179.977</v>
-      </c>
-      <c r="G42">
-        <v>-1E-3</v>
-      </c>
-      <c r="H42">
-        <v>-179.99799999999999</v>
-      </c>
-      <c r="I42">
-        <v>1</v>
-      </c>
-      <c r="J42">
-        <v>0</v>
-      </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>1</v>
-      </c>
-      <c r="M42">
-        <v>1</v>
-      </c>
-      <c r="N42">
-        <v>1</v>
-      </c>
-      <c r="O42">
-        <v>1</v>
-      </c>
-      <c r="P42">
-        <v>0</v>
-      </c>
-      <c r="Q42">
-        <v>0</v>
-      </c>
-      <c r="R42">
-        <v>0</v>
-      </c>
-      <c r="S42">
-        <v>0</v>
-      </c>
-      <c r="T42">
-        <v>0</v>
-      </c>
-      <c r="U42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A43">
-        <v>41</v>
-      </c>
-      <c r="B43" t="s">
-        <v>18</v>
-      </c>
-      <c r="C43">
-        <v>102.34699999999999</v>
-      </c>
-      <c r="D43">
-        <v>168.214</v>
-      </c>
-      <c r="E43">
-        <v>-22.268000000000001</v>
-      </c>
-      <c r="F43">
-        <v>-179.977</v>
-      </c>
-      <c r="G43">
-        <v>-1E-3</v>
-      </c>
-      <c r="H43">
-        <v>-179.99799999999999</v>
-      </c>
-      <c r="I43">
-        <v>1</v>
-      </c>
-      <c r="J43">
-        <v>0</v>
-      </c>
-      <c r="K43">
-        <v>0</v>
-      </c>
-      <c r="L43">
-        <v>1</v>
-      </c>
-      <c r="M43">
-        <v>1</v>
-      </c>
-      <c r="N43">
-        <v>1</v>
-      </c>
-      <c r="O43">
-        <v>1</v>
-      </c>
-      <c r="P43">
-        <v>0</v>
-      </c>
-      <c r="Q43">
-        <v>0</v>
-      </c>
-      <c r="R43">
-        <v>0</v>
-      </c>
-      <c r="S43">
-        <v>0</v>
-      </c>
-      <c r="T43">
-        <v>0</v>
-      </c>
-      <c r="U43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A52">
-        <v>50</v>
-      </c>
-      <c r="B52" t="s">
-        <v>19</v>
-      </c>
-      <c r="C52">
-        <v>87.341999999999999</v>
-      </c>
-      <c r="D52">
-        <v>222.26900000000001</v>
-      </c>
-      <c r="E52">
-        <v>3.76</v>
-      </c>
-      <c r="F52">
-        <v>-179.977</v>
-      </c>
-      <c r="G52">
-        <v>-1E-3</v>
-      </c>
-      <c r="H52">
-        <v>-179.99799999999999</v>
-      </c>
-      <c r="I52">
-        <v>1</v>
-      </c>
-      <c r="J52">
-        <v>0</v>
-      </c>
-      <c r="K52">
-        <v>0</v>
-      </c>
-      <c r="L52">
-        <v>1</v>
-      </c>
-      <c r="M52">
-        <v>1</v>
-      </c>
-      <c r="N52">
-        <v>1</v>
-      </c>
-      <c r="O52">
-        <v>1</v>
-      </c>
-      <c r="P52">
-        <v>0</v>
-      </c>
-      <c r="Q52">
-        <v>0</v>
-      </c>
-      <c r="R52">
-        <v>0</v>
-      </c>
-      <c r="S52">
-        <v>0</v>
-      </c>
-      <c r="T52">
-        <v>0</v>
-      </c>
-      <c r="U52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A53">
-        <v>51</v>
-      </c>
-      <c r="B53" t="s">
-        <v>20</v>
-      </c>
-      <c r="C53">
-        <v>87.341999999999999</v>
-      </c>
-      <c r="D53">
-        <v>222.26900000000001</v>
-      </c>
-      <c r="E53">
-        <v>-32.206000000000003</v>
-      </c>
-      <c r="F53">
-        <v>-179.977</v>
-      </c>
-      <c r="G53">
-        <v>-1E-3</v>
-      </c>
-      <c r="H53">
-        <v>-179.99799999999999</v>
-      </c>
-      <c r="I53">
-        <v>1</v>
-      </c>
-      <c r="J53">
-        <v>0</v>
-      </c>
-      <c r="K53">
-        <v>0</v>
-      </c>
-      <c r="L53">
-        <v>1</v>
-      </c>
-      <c r="M53">
-        <v>1</v>
-      </c>
-      <c r="N53">
-        <v>1</v>
-      </c>
-      <c r="O53">
-        <v>1</v>
-      </c>
-      <c r="P53">
-        <v>0</v>
-      </c>
-      <c r="Q53">
-        <v>0</v>
-      </c>
-      <c r="R53">
-        <v>0</v>
-      </c>
-      <c r="S53">
-        <v>0</v>
-      </c>
-      <c r="T53">
-        <v>0</v>
-      </c>
-      <c r="U53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A54">
-        <v>52</v>
-      </c>
-      <c r="B54" t="s">
-        <v>21</v>
-      </c>
-      <c r="C54">
-        <v>194.499</v>
-      </c>
-      <c r="D54">
-        <v>222.26900000000001</v>
-      </c>
-      <c r="E54">
-        <v>-32.206000000000003</v>
-      </c>
-      <c r="F54">
-        <v>-179.977</v>
-      </c>
-      <c r="G54">
-        <v>-1E-3</v>
-      </c>
-      <c r="H54">
-        <v>-179.99799999999999</v>
-      </c>
-      <c r="I54">
-        <v>1</v>
-      </c>
-      <c r="J54">
-        <v>0</v>
-      </c>
-      <c r="K54">
-        <v>0</v>
-      </c>
-      <c r="L54">
-        <v>1</v>
-      </c>
-      <c r="M54">
-        <v>1</v>
-      </c>
-      <c r="N54">
-        <v>1</v>
-      </c>
-      <c r="O54">
-        <v>1</v>
-      </c>
-      <c r="P54">
-        <v>0</v>
-      </c>
-      <c r="Q54">
-        <v>0</v>
-      </c>
-      <c r="R54">
-        <v>0</v>
-      </c>
-      <c r="S54">
-        <v>0</v>
-      </c>
-      <c r="T54">
-        <v>0</v>
-      </c>
-      <c r="U54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A55">
-        <v>53</v>
-      </c>
-      <c r="B55" t="s">
-        <v>22</v>
-      </c>
-      <c r="C55">
-        <v>141.892</v>
-      </c>
-      <c r="D55">
-        <v>173.136</v>
-      </c>
-      <c r="E55">
-        <v>79.236999999999995</v>
-      </c>
-      <c r="F55">
-        <v>-179.977</v>
-      </c>
-      <c r="G55">
-        <v>-1E-3</v>
-      </c>
-      <c r="H55">
-        <v>-179.99799999999999</v>
-      </c>
-      <c r="I55">
-        <v>1</v>
-      </c>
-      <c r="J55">
-        <v>0</v>
-      </c>
-      <c r="K55">
-        <v>0</v>
-      </c>
-      <c r="L55">
-        <v>1</v>
-      </c>
-      <c r="M55">
-        <v>1</v>
-      </c>
-      <c r="N55">
-        <v>1</v>
-      </c>
-      <c r="O55">
-        <v>1</v>
-      </c>
-      <c r="P55">
-        <v>0</v>
-      </c>
-      <c r="Q55">
-        <v>0</v>
-      </c>
-      <c r="R55">
-        <v>0</v>
-      </c>
-      <c r="S55">
-        <v>0</v>
-      </c>
-      <c r="T55">
-        <v>0</v>
-      </c>
-      <c r="U55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A56">
-        <v>54</v>
-      </c>
-      <c r="B56" t="s">
-        <v>23</v>
-      </c>
-      <c r="C56">
-        <v>46.536000000000001</v>
-      </c>
-      <c r="D56">
-        <v>350.65699999999998</v>
-      </c>
-      <c r="E56">
-        <v>7.8970000000000002</v>
-      </c>
-      <c r="F56">
-        <v>-0.315</v>
-      </c>
-      <c r="G56">
-        <v>84.262</v>
-      </c>
-      <c r="H56">
-        <v>89.686999999999998</v>
-      </c>
-      <c r="I56">
-        <v>1</v>
-      </c>
-      <c r="J56">
-        <v>0</v>
-      </c>
-      <c r="K56">
-        <v>0</v>
-      </c>
-      <c r="L56">
-        <v>1</v>
-      </c>
-      <c r="M56">
-        <v>1</v>
-      </c>
-      <c r="N56">
-        <v>1</v>
-      </c>
-      <c r="O56">
-        <v>1</v>
-      </c>
-      <c r="P56">
-        <v>0</v>
-      </c>
-      <c r="Q56">
-        <v>0</v>
-      </c>
-      <c r="R56">
-        <v>0</v>
-      </c>
-      <c r="S56">
-        <v>1</v>
-      </c>
-      <c r="T56">
-        <v>0</v>
-      </c>
-      <c r="U56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A57">
-        <v>55</v>
-      </c>
-      <c r="B57" t="s">
-        <v>60</v>
-      </c>
-      <c r="C57">
-        <v>46.536000000000001</v>
-      </c>
-      <c r="D57">
-        <v>350.65699999999998</v>
-      </c>
-      <c r="E57">
-        <v>27.332000000000001</v>
-      </c>
-      <c r="F57">
-        <v>-0.315</v>
-      </c>
-      <c r="G57">
-        <v>84.262</v>
-      </c>
-      <c r="H57">
-        <v>89.686999999999998</v>
-      </c>
-      <c r="I57">
-        <v>1</v>
-      </c>
-      <c r="J57">
-        <v>0</v>
-      </c>
-      <c r="K57">
-        <v>0</v>
-      </c>
-      <c r="L57">
-        <v>1</v>
-      </c>
-      <c r="M57">
-        <v>1</v>
-      </c>
-      <c r="N57">
-        <v>1</v>
-      </c>
-      <c r="O57">
-        <v>1</v>
-      </c>
-      <c r="P57">
-        <v>0</v>
-      </c>
-      <c r="Q57">
-        <v>0</v>
-      </c>
-      <c r="R57">
-        <v>0</v>
-      </c>
-      <c r="S57">
-        <v>1</v>
-      </c>
-      <c r="T57">
-        <v>0</v>
-      </c>
-      <c r="U57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A58">
-        <v>56</v>
-      </c>
-      <c r="B58" t="s">
-        <v>24</v>
-      </c>
-      <c r="C58">
-        <v>46.536000000000001</v>
-      </c>
-      <c r="D58">
-        <v>350.65699999999998</v>
-      </c>
-      <c r="E58">
-        <v>-28.581</v>
-      </c>
-      <c r="F58">
-        <v>-0.315</v>
-      </c>
-      <c r="G58">
-        <v>84.262</v>
-      </c>
-      <c r="H58">
-        <v>89.686999999999998</v>
-      </c>
-      <c r="I58">
-        <v>1</v>
-      </c>
-      <c r="J58">
-        <v>0</v>
-      </c>
-      <c r="K58">
-        <v>0</v>
-      </c>
-      <c r="L58">
-        <v>1</v>
-      </c>
-      <c r="M58">
-        <v>1</v>
-      </c>
-      <c r="N58">
-        <v>1</v>
-      </c>
-      <c r="O58">
-        <v>1</v>
-      </c>
-      <c r="P58">
-        <v>0</v>
-      </c>
-      <c r="Q58">
-        <v>0</v>
-      </c>
-      <c r="R58">
-        <v>0</v>
-      </c>
-      <c r="S58">
-        <v>1</v>
-      </c>
-      <c r="T58">
-        <v>0</v>
-      </c>
-      <c r="U58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A59">
-        <v>57</v>
-      </c>
-      <c r="B59" t="s">
-        <v>61</v>
-      </c>
-      <c r="C59">
-        <v>46.536000000000001</v>
-      </c>
-      <c r="D59">
-        <v>350.65699999999998</v>
-      </c>
-      <c r="E59">
-        <v>-146.952</v>
-      </c>
-      <c r="F59">
-        <v>-0.315</v>
-      </c>
-      <c r="G59">
-        <v>84.262</v>
-      </c>
-      <c r="H59">
-        <v>89.686999999999998</v>
-      </c>
-      <c r="I59">
-        <v>1</v>
-      </c>
-      <c r="J59">
-        <v>0</v>
-      </c>
-      <c r="K59">
-        <v>0</v>
-      </c>
-      <c r="L59">
-        <v>1</v>
-      </c>
-      <c r="M59">
-        <v>1</v>
-      </c>
-      <c r="N59">
-        <v>1</v>
-      </c>
-      <c r="O59">
-        <v>1</v>
-      </c>
-      <c r="P59">
-        <v>0</v>
-      </c>
-      <c r="Q59">
-        <v>0</v>
-      </c>
-      <c r="R59">
-        <v>0</v>
-      </c>
-      <c r="S59">
-        <v>1</v>
-      </c>
-      <c r="T59">
-        <v>0</v>
-      </c>
-      <c r="U59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A60">
-        <v>58</v>
-      </c>
-      <c r="B60" t="s">
-        <v>27</v>
-      </c>
-      <c r="C60">
-        <v>162.148</v>
-      </c>
-      <c r="D60">
-        <v>236.28700000000001</v>
-      </c>
-      <c r="E60">
-        <v>71.16</v>
-      </c>
-      <c r="F60">
-        <v>87.314999999999998</v>
-      </c>
-      <c r="G60">
-        <v>-1E-3</v>
-      </c>
-      <c r="H60">
-        <v>-179.99799999999999</v>
-      </c>
-      <c r="I60">
-        <v>1</v>
-      </c>
-      <c r="J60">
-        <v>0</v>
-      </c>
-      <c r="K60">
-        <v>0</v>
-      </c>
-      <c r="L60">
-        <v>1</v>
-      </c>
-      <c r="M60">
-        <v>1</v>
-      </c>
-      <c r="N60">
-        <v>1</v>
-      </c>
-      <c r="O60">
-        <v>1</v>
-      </c>
-      <c r="P60">
-        <v>0</v>
-      </c>
-      <c r="Q60">
-        <v>0</v>
-      </c>
-      <c r="R60">
-        <v>0</v>
-      </c>
-      <c r="S60">
-        <v>1</v>
-      </c>
-      <c r="T60">
-        <v>0</v>
-      </c>
-      <c r="U60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A61">
-        <v>59</v>
-      </c>
-      <c r="B61" t="s">
-        <v>28</v>
-      </c>
-      <c r="C61">
-        <v>224.55799999999999</v>
-      </c>
-      <c r="D61">
-        <v>310.20699999999999</v>
-      </c>
-      <c r="E61">
-        <v>11.573</v>
-      </c>
-      <c r="F61">
-        <v>87.314999999999998</v>
-      </c>
-      <c r="G61">
-        <v>-1E-3</v>
-      </c>
-      <c r="H61">
-        <v>-179.99799999999999</v>
-      </c>
-      <c r="I61">
-        <v>1</v>
-      </c>
-      <c r="J61">
-        <v>0</v>
-      </c>
-      <c r="K61">
-        <v>0</v>
-      </c>
-      <c r="L61">
-        <v>1</v>
-      </c>
-      <c r="M61">
-        <v>1</v>
-      </c>
-      <c r="N61">
-        <v>1</v>
-      </c>
-      <c r="O61">
-        <v>1</v>
-      </c>
-      <c r="P61">
-        <v>0</v>
-      </c>
-      <c r="Q61">
-        <v>0</v>
-      </c>
-      <c r="R61">
-        <v>0</v>
-      </c>
-      <c r="S61">
-        <v>1</v>
-      </c>
-      <c r="T61">
-        <v>0</v>
-      </c>
-      <c r="U61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A62">
-        <v>60</v>
-      </c>
-      <c r="B62" t="s">
-        <v>29</v>
-      </c>
-      <c r="C62">
-        <v>224.55799999999999</v>
-      </c>
-      <c r="D62">
-        <v>310.20699999999999</v>
-      </c>
-      <c r="E62">
-        <v>-114.59099999999999</v>
-      </c>
-      <c r="F62">
-        <v>87.314999999999998</v>
-      </c>
-      <c r="G62">
-        <v>-1E-3</v>
-      </c>
-      <c r="H62">
-        <v>-179.99799999999999</v>
-      </c>
-      <c r="I62">
-        <v>1</v>
-      </c>
-      <c r="J62">
-        <v>0</v>
-      </c>
-      <c r="K62">
-        <v>0</v>
-      </c>
-      <c r="L62">
-        <v>1</v>
-      </c>
-      <c r="M62">
-        <v>1</v>
-      </c>
-      <c r="N62">
-        <v>1</v>
-      </c>
-      <c r="O62">
-        <v>1</v>
-      </c>
-      <c r="P62">
-        <v>0</v>
-      </c>
-      <c r="Q62">
-        <v>0</v>
-      </c>
-      <c r="R62">
-        <v>0</v>
-      </c>
-      <c r="S62">
-        <v>1</v>
-      </c>
-      <c r="T62">
-        <v>0</v>
-      </c>
-      <c r="U62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A63">
-        <v>61</v>
-      </c>
-      <c r="B63" t="s">
-        <v>30</v>
-      </c>
-      <c r="C63">
-        <v>224.55799999999999</v>
-      </c>
-      <c r="D63">
-        <v>310.20699999999999</v>
-      </c>
-      <c r="E63">
-        <v>6.359</v>
-      </c>
-      <c r="F63">
-        <v>87.314999999999998</v>
-      </c>
-      <c r="G63">
-        <v>-1E-3</v>
-      </c>
-      <c r="H63">
-        <v>-179.99799999999999</v>
-      </c>
-      <c r="I63">
-        <v>1</v>
-      </c>
-      <c r="J63">
-        <v>0</v>
-      </c>
-      <c r="K63">
-        <v>0</v>
-      </c>
-      <c r="L63">
-        <v>1</v>
-      </c>
-      <c r="M63">
-        <v>1</v>
-      </c>
-      <c r="N63">
-        <v>1</v>
-      </c>
-      <c r="O63">
-        <v>1</v>
-      </c>
-      <c r="P63">
-        <v>0</v>
-      </c>
-      <c r="Q63">
-        <v>0</v>
-      </c>
-      <c r="R63">
-        <v>0</v>
-      </c>
-      <c r="S63">
-        <v>1</v>
-      </c>
-      <c r="T63">
-        <v>0</v>
-      </c>
-      <c r="U63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A72">
-        <v>70</v>
-      </c>
-      <c r="B72" t="s">
-        <v>31</v>
-      </c>
-      <c r="C72">
-        <v>199.56700000000001</v>
-      </c>
-      <c r="D72">
-        <v>9.3320000000000007</v>
-      </c>
-      <c r="E72">
-        <v>25.516999999999999</v>
-      </c>
-      <c r="F72">
-        <v>87.314999999999998</v>
-      </c>
-      <c r="G72">
-        <v>-1E-3</v>
-      </c>
-      <c r="H72">
-        <v>-179.99799999999999</v>
-      </c>
-      <c r="I72">
-        <v>1</v>
-      </c>
-      <c r="J72">
-        <v>0</v>
-      </c>
-      <c r="K72">
-        <v>0</v>
-      </c>
-      <c r="L72">
-        <v>1</v>
-      </c>
-      <c r="M72">
-        <v>1</v>
-      </c>
-      <c r="N72">
-        <v>1</v>
-      </c>
-      <c r="O72">
-        <v>1</v>
-      </c>
-      <c r="P72">
-        <v>0</v>
-      </c>
-      <c r="Q72">
-        <v>0</v>
-      </c>
-      <c r="R72">
-        <v>0</v>
-      </c>
-      <c r="S72">
-        <v>1</v>
-      </c>
-      <c r="T72">
-        <v>0</v>
-      </c>
-      <c r="U72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A73">
-        <v>71</v>
-      </c>
-      <c r="B73" t="s">
-        <v>32</v>
-      </c>
-      <c r="C73">
-        <v>205.46100000000001</v>
-      </c>
-      <c r="D73">
-        <v>4.0620000000000003</v>
-      </c>
-      <c r="E73">
-        <v>-55.731999999999999</v>
-      </c>
-      <c r="F73">
-        <v>-1.9710000000000001</v>
-      </c>
-      <c r="G73">
-        <v>-1E-3</v>
-      </c>
-      <c r="H73">
-        <v>-179.99799999999999</v>
-      </c>
-      <c r="I73">
-        <v>1</v>
-      </c>
-      <c r="J73">
-        <v>0</v>
-      </c>
-      <c r="K73">
-        <v>0</v>
-      </c>
-      <c r="L73">
-        <v>1</v>
-      </c>
-      <c r="M73">
-        <v>1</v>
-      </c>
-      <c r="N73">
-        <v>1</v>
-      </c>
-      <c r="O73">
-        <v>1</v>
-      </c>
-      <c r="P73">
-        <v>0</v>
-      </c>
-      <c r="Q73">
-        <v>0</v>
-      </c>
-      <c r="R73">
-        <v>0</v>
-      </c>
-      <c r="S73">
-        <v>1</v>
-      </c>
-      <c r="T73">
-        <v>0</v>
-      </c>
-      <c r="U73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A74">
-        <v>72</v>
-      </c>
-      <c r="B74" t="s">
-        <v>33</v>
-      </c>
-      <c r="C74">
-        <v>239.53100000000001</v>
-      </c>
-      <c r="D74">
-        <v>4.0620000000000003</v>
-      </c>
-      <c r="E74">
-        <v>-55.731999999999999</v>
-      </c>
-      <c r="F74">
-        <v>-2.0249999999999999</v>
-      </c>
-      <c r="G74">
-        <v>13.247</v>
-      </c>
-      <c r="H74">
-        <v>179.53800000000001</v>
-      </c>
-      <c r="I74">
-        <v>1</v>
-      </c>
-      <c r="J74">
-        <v>0</v>
-      </c>
-      <c r="K74">
-        <v>0</v>
-      </c>
-      <c r="L74">
-        <v>1</v>
-      </c>
-      <c r="M74">
-        <v>1</v>
-      </c>
-      <c r="N74">
-        <v>1</v>
-      </c>
-      <c r="O74">
-        <v>1</v>
-      </c>
-      <c r="P74">
-        <v>0</v>
-      </c>
-      <c r="Q74">
-        <v>0</v>
-      </c>
-      <c r="R74">
-        <v>0</v>
-      </c>
-      <c r="S74">
-        <v>1</v>
-      </c>
-      <c r="T74">
-        <v>0</v>
-      </c>
-      <c r="U74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A75">
-        <v>73</v>
-      </c>
-      <c r="B75" t="s">
-        <v>34</v>
-      </c>
-      <c r="C75">
-        <v>239.53100000000001</v>
-      </c>
-      <c r="D75">
-        <v>236.28200000000001</v>
-      </c>
-      <c r="E75">
-        <v>-55.731999999999999</v>
-      </c>
-      <c r="F75">
-        <v>-2.0249999999999999</v>
-      </c>
-      <c r="G75">
-        <v>13.247</v>
-      </c>
-      <c r="H75">
-        <v>179.53800000000001</v>
-      </c>
-      <c r="I75">
-        <v>1</v>
-      </c>
-      <c r="J75">
-        <v>0</v>
-      </c>
-      <c r="K75">
-        <v>0</v>
-      </c>
-      <c r="L75">
-        <v>1</v>
-      </c>
-      <c r="M75">
-        <v>1</v>
-      </c>
-      <c r="N75">
-        <v>1</v>
-      </c>
-      <c r="O75">
-        <v>1</v>
-      </c>
-      <c r="P75">
-        <v>0</v>
-      </c>
-      <c r="Q75">
-        <v>0</v>
-      </c>
-      <c r="R75">
-        <v>0</v>
-      </c>
-      <c r="S75">
-        <v>1</v>
-      </c>
-      <c r="T75">
-        <v>0</v>
-      </c>
-      <c r="U75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A76">
-        <v>74</v>
-      </c>
-      <c r="B76" t="s">
-        <v>35</v>
-      </c>
-      <c r="C76">
-        <v>175.934</v>
-      </c>
-      <c r="D76">
-        <v>235.63300000000001</v>
-      </c>
-      <c r="E76">
-        <v>-25.338999999999999</v>
-      </c>
-      <c r="F76">
-        <v>-2.0249999999999999</v>
-      </c>
-      <c r="G76">
-        <v>13.247</v>
-      </c>
-      <c r="H76">
-        <v>179.53800000000001</v>
-      </c>
-      <c r="I76">
-        <v>1</v>
-      </c>
-      <c r="J76">
-        <v>0</v>
-      </c>
-      <c r="K76">
-        <v>0</v>
-      </c>
-      <c r="L76">
-        <v>1</v>
-      </c>
-      <c r="M76">
-        <v>1</v>
-      </c>
-      <c r="N76">
-        <v>1</v>
-      </c>
-      <c r="O76">
-        <v>1</v>
-      </c>
-      <c r="P76">
-        <v>0</v>
-      </c>
-      <c r="Q76">
-        <v>0</v>
-      </c>
-      <c r="R76">
-        <v>0</v>
-      </c>
-      <c r="S76">
-        <v>1</v>
-      </c>
-      <c r="T76">
-        <v>0</v>
-      </c>
-      <c r="U76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A77">
-        <v>75</v>
-      </c>
-      <c r="B77" t="s">
-        <v>36</v>
-      </c>
-      <c r="C77">
-        <v>175.934</v>
-      </c>
-      <c r="D77">
-        <v>10.942</v>
-      </c>
-      <c r="E77">
-        <v>-25.338999999999999</v>
-      </c>
-      <c r="F77">
-        <v>-2.0249999999999999</v>
-      </c>
-      <c r="G77">
-        <v>13.247</v>
-      </c>
-      <c r="H77">
-        <v>179.53800000000001</v>
-      </c>
-      <c r="I77">
-        <v>1</v>
-      </c>
-      <c r="J77">
-        <v>0</v>
-      </c>
-      <c r="K77">
-        <v>0</v>
-      </c>
-      <c r="L77">
-        <v>1</v>
-      </c>
-      <c r="M77">
-        <v>1</v>
-      </c>
-      <c r="N77">
-        <v>1</v>
-      </c>
-      <c r="O77">
-        <v>1</v>
-      </c>
-      <c r="P77">
-        <v>0</v>
-      </c>
-      <c r="Q77">
-        <v>0</v>
-      </c>
-      <c r="R77">
-        <v>0</v>
-      </c>
-      <c r="S77">
-        <v>1</v>
-      </c>
-      <c r="T77">
-        <v>0</v>
-      </c>
-      <c r="U77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A78">
-        <v>76</v>
-      </c>
-      <c r="B78" t="s">
-        <v>37</v>
-      </c>
-      <c r="C78">
-        <v>237.66200000000001</v>
-      </c>
-      <c r="D78">
-        <v>12.382999999999999</v>
-      </c>
-      <c r="E78">
-        <v>-44.893999999999998</v>
-      </c>
-      <c r="F78">
-        <v>-2.0249999999999999</v>
-      </c>
-      <c r="G78">
-        <v>13.247</v>
-      </c>
-      <c r="H78">
-        <v>179.53800000000001</v>
-      </c>
-      <c r="I78">
-        <v>1</v>
-      </c>
-      <c r="J78">
-        <v>0</v>
-      </c>
-      <c r="K78">
-        <v>0</v>
-      </c>
-      <c r="L78">
-        <v>1</v>
-      </c>
-      <c r="M78">
-        <v>1</v>
-      </c>
-      <c r="N78">
-        <v>1</v>
-      </c>
-      <c r="O78">
-        <v>1</v>
-      </c>
-      <c r="P78">
-        <v>0</v>
-      </c>
-      <c r="Q78">
-        <v>0</v>
-      </c>
-      <c r="R78">
-        <v>0</v>
-      </c>
-      <c r="S78">
-        <v>1</v>
-      </c>
-      <c r="T78">
-        <v>0</v>
-      </c>
-      <c r="U78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A79">
-        <v>77</v>
-      </c>
-      <c r="B79" t="s">
-        <v>38</v>
-      </c>
-      <c r="C79">
-        <v>237.69499999999999</v>
-      </c>
-      <c r="D79">
-        <v>12.471</v>
-      </c>
-      <c r="E79">
-        <v>-44.914999999999999</v>
-      </c>
-      <c r="F79">
-        <v>87.036000000000001</v>
-      </c>
-      <c r="G79">
-        <v>5.8579999999999997</v>
-      </c>
-      <c r="H79">
-        <v>179.798</v>
-      </c>
-      <c r="I79">
-        <v>1</v>
-      </c>
-      <c r="J79">
-        <v>0</v>
-      </c>
-      <c r="K79">
-        <v>0</v>
-      </c>
-      <c r="L79">
-        <v>1</v>
-      </c>
-      <c r="M79">
-        <v>1</v>
-      </c>
-      <c r="N79">
-        <v>1</v>
-      </c>
-      <c r="O79">
-        <v>1</v>
-      </c>
-      <c r="P79">
-        <v>0</v>
-      </c>
-      <c r="Q79">
-        <v>0</v>
-      </c>
-      <c r="R79">
-        <v>0</v>
-      </c>
-      <c r="S79">
-        <v>1</v>
-      </c>
-      <c r="T79">
-        <v>0</v>
-      </c>
-      <c r="U79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A80">
-        <v>78</v>
-      </c>
-      <c r="B80" t="s">
-        <v>39</v>
-      </c>
-      <c r="C80">
-        <v>237.69499999999999</v>
-      </c>
-      <c r="D80">
-        <v>175.185</v>
-      </c>
-      <c r="E80">
-        <v>-15.041</v>
-      </c>
-      <c r="F80">
-        <v>87.036000000000001</v>
-      </c>
-      <c r="G80">
-        <v>5.8579999999999997</v>
-      </c>
-      <c r="H80">
-        <v>179.798</v>
-      </c>
-      <c r="I80">
-        <v>1</v>
-      </c>
-      <c r="J80">
-        <v>0</v>
-      </c>
-      <c r="K80">
-        <v>0</v>
-      </c>
-      <c r="L80">
-        <v>1</v>
-      </c>
-      <c r="M80">
-        <v>1</v>
-      </c>
-      <c r="N80">
-        <v>1</v>
-      </c>
-      <c r="O80">
-        <v>1</v>
-      </c>
-      <c r="P80">
-        <v>0</v>
-      </c>
-      <c r="Q80">
-        <v>0</v>
-      </c>
-      <c r="R80">
-        <v>0</v>
-      </c>
-      <c r="S80">
-        <v>1</v>
-      </c>
-      <c r="T80">
-        <v>0</v>
-      </c>
-      <c r="U80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A81">
-        <v>79</v>
-      </c>
-      <c r="B81" t="s">
-        <v>40</v>
-      </c>
-      <c r="C81">
-        <v>237.69499999999999</v>
-      </c>
-      <c r="D81">
-        <v>175.185</v>
-      </c>
-      <c r="E81">
-        <v>11.532999999999999</v>
-      </c>
-      <c r="F81">
-        <v>175.887</v>
-      </c>
-      <c r="G81">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="H81">
-        <v>-178.04900000000001</v>
-      </c>
-      <c r="I81">
-        <v>1</v>
-      </c>
-      <c r="J81">
-        <v>0</v>
-      </c>
-      <c r="K81">
-        <v>0</v>
-      </c>
-      <c r="L81">
-        <v>1</v>
-      </c>
-      <c r="M81">
-        <v>1</v>
-      </c>
-      <c r="N81">
-        <v>1</v>
-      </c>
-      <c r="O81">
-        <v>1</v>
-      </c>
-      <c r="P81">
-        <v>0</v>
-      </c>
-      <c r="Q81">
-        <v>0</v>
-      </c>
-      <c r="R81">
-        <v>0</v>
-      </c>
-      <c r="S81">
-        <v>0</v>
-      </c>
-      <c r="T81">
-        <v>0</v>
-      </c>
-      <c r="U81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A82">
-        <v>80</v>
-      </c>
-      <c r="B82" t="s">
-        <v>41</v>
-      </c>
-      <c r="C82">
-        <v>132.92599999999999</v>
-      </c>
-      <c r="D82">
-        <v>226.00299999999999</v>
-      </c>
-      <c r="E82">
-        <v>-17.260999999999999</v>
-      </c>
-      <c r="F82">
-        <v>-179.988</v>
-      </c>
-      <c r="G82">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="H82">
-        <v>-178.04900000000001</v>
-      </c>
-      <c r="I82">
-        <v>1</v>
-      </c>
-      <c r="J82">
-        <v>0</v>
-      </c>
-      <c r="K82">
-        <v>0</v>
-      </c>
-      <c r="L82">
-        <v>1</v>
-      </c>
-      <c r="M82">
-        <v>1</v>
-      </c>
-      <c r="N82">
-        <v>1</v>
-      </c>
-      <c r="O82">
-        <v>1</v>
-      </c>
-      <c r="P82">
-        <v>0</v>
-      </c>
-      <c r="Q82">
-        <v>0</v>
-      </c>
-      <c r="R82">
-        <v>0</v>
-      </c>
-      <c r="S82">
-        <v>0</v>
-      </c>
-      <c r="T82">
-        <v>0</v>
-      </c>
-      <c r="U82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="997" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A997">
-        <v>995</v>
-      </c>
-      <c r="B997" t="s">
-        <v>42</v>
-      </c>
-      <c r="C997">
-        <v>-350</v>
-      </c>
-      <c r="D997">
-        <v>50</v>
-      </c>
-      <c r="E997">
-        <v>522</v>
-      </c>
-      <c r="F997">
-        <v>-90</v>
-      </c>
-      <c r="G997">
-        <v>0</v>
-      </c>
-      <c r="H997">
-        <v>-180</v>
-      </c>
-      <c r="I997">
-        <v>0</v>
-      </c>
-      <c r="J997">
-        <v>0</v>
-      </c>
-      <c r="K997">
-        <v>0</v>
-      </c>
-      <c r="L997">
-        <v>0</v>
-      </c>
-      <c r="M997">
-        <v>1</v>
-      </c>
-      <c r="N997">
-        <v>1</v>
-      </c>
-      <c r="O997">
-        <v>1</v>
-      </c>
-      <c r="P997">
-        <v>0</v>
-      </c>
-      <c r="Q997">
-        <v>0</v>
-      </c>
-      <c r="R997">
-        <v>0</v>
-      </c>
-      <c r="S997">
-        <v>1</v>
-      </c>
-      <c r="T997">
-        <v>0</v>
-      </c>
-      <c r="U997">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="998" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A998">
-        <v>996</v>
-      </c>
-      <c r="B998" t="s">
-        <v>43</v>
-      </c>
-      <c r="C998">
-        <v>-550</v>
-      </c>
-      <c r="D998">
-        <v>50</v>
-      </c>
-      <c r="E998">
-        <v>522</v>
-      </c>
-      <c r="F998">
-        <v>-90</v>
-      </c>
-      <c r="G998">
-        <v>0</v>
-      </c>
-      <c r="H998">
-        <v>180</v>
-      </c>
-      <c r="I998">
-        <v>0</v>
-      </c>
-      <c r="J998">
-        <v>0</v>
-      </c>
-      <c r="K998">
-        <v>0</v>
-      </c>
-      <c r="L998">
-        <v>0</v>
-      </c>
-      <c r="M998">
-        <v>1</v>
-      </c>
-      <c r="N998">
-        <v>1</v>
-      </c>
-      <c r="O998">
-        <v>1</v>
-      </c>
-      <c r="P998">
-        <v>0</v>
-      </c>
-      <c r="Q998">
-        <v>0</v>
-      </c>
-      <c r="R998">
-        <v>0</v>
-      </c>
-      <c r="S998">
-        <v>1</v>
-      </c>
-      <c r="T998">
-        <v>0</v>
-      </c>
-      <c r="U998">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="999" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A999">
-        <v>997</v>
-      </c>
-      <c r="B999" t="s">
-        <v>44</v>
-      </c>
-      <c r="C999">
-        <v>-550</v>
-      </c>
-      <c r="D999">
-        <v>250</v>
-      </c>
-      <c r="E999">
-        <v>522</v>
-      </c>
-      <c r="F999">
-        <v>-90</v>
-      </c>
-      <c r="G999">
-        <v>0</v>
-      </c>
-      <c r="H999">
-        <v>180</v>
-      </c>
-      <c r="I999">
-        <v>0</v>
-      </c>
-      <c r="J999">
-        <v>0</v>
-      </c>
-      <c r="K999">
-        <v>0</v>
-      </c>
-      <c r="L999">
-        <v>0</v>
-      </c>
-      <c r="M999">
-        <v>1</v>
-      </c>
-      <c r="N999">
-        <v>1</v>
-      </c>
-      <c r="O999">
-        <v>1</v>
-      </c>
-      <c r="P999">
-        <v>0</v>
-      </c>
-      <c r="Q999">
-        <v>0</v>
-      </c>
-      <c r="R999">
-        <v>0</v>
-      </c>
-      <c r="S999">
-        <v>1</v>
-      </c>
-      <c r="T999">
-        <v>0</v>
-      </c>
-      <c r="U999">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1000" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A1000">
-        <v>998</v>
-      </c>
-      <c r="B1000" t="s">
-        <v>45</v>
-      </c>
-      <c r="C1000">
-        <v>-350</v>
-      </c>
-      <c r="D1000">
-        <v>250</v>
-      </c>
-      <c r="E1000">
-        <v>522</v>
-      </c>
-      <c r="F1000">
-        <v>-90</v>
-      </c>
-      <c r="G1000">
-        <v>0</v>
-      </c>
-      <c r="H1000">
-        <v>180</v>
-      </c>
-      <c r="I1000">
-        <v>0</v>
-      </c>
-      <c r="J1000">
-        <v>0</v>
-      </c>
-      <c r="K1000">
-        <v>0</v>
-      </c>
-      <c r="L1000">
-        <v>0</v>
-      </c>
-      <c r="M1000">
-        <v>1</v>
-      </c>
-      <c r="N1000">
-        <v>1</v>
-      </c>
-      <c r="O1000">
-        <v>1</v>
-      </c>
-      <c r="P1000">
-        <v>0</v>
-      </c>
-      <c r="Q1000">
-        <v>0</v>
-      </c>
-      <c r="R1000">
-        <v>0</v>
-      </c>
-      <c r="S1000">
-        <v>1</v>
-      </c>
-      <c r="T1000">
-        <v>0</v>
-      </c>
-      <c r="U1000">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1001" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A1001">
-        <v>999</v>
-      </c>
-      <c r="B1001" t="s">
-        <v>46</v>
-      </c>
-      <c r="C1001">
-        <v>-450</v>
-      </c>
-      <c r="D1001">
-        <v>150</v>
-      </c>
-      <c r="E1001">
-        <v>522</v>
-      </c>
-      <c r="F1001">
-        <v>-90</v>
-      </c>
-      <c r="G1001">
-        <v>0</v>
-      </c>
-      <c r="H1001">
-        <v>-180</v>
-      </c>
-      <c r="I1001">
-        <v>0</v>
-      </c>
-      <c r="J1001">
-        <v>0</v>
-      </c>
-      <c r="K1001">
-        <v>0</v>
-      </c>
-      <c r="L1001">
-        <v>0</v>
-      </c>
-      <c r="M1001">
-        <v>1</v>
-      </c>
-      <c r="N1001">
-        <v>1</v>
-      </c>
-      <c r="O1001">
-        <v>1</v>
-      </c>
-      <c r="P1001">
-        <v>0</v>
-      </c>
-      <c r="Q1001">
-        <v>0</v>
-      </c>
-      <c r="R1001">
-        <v>0</v>
-      </c>
-      <c r="S1001">
-        <v>1</v>
-      </c>
-      <c r="T1001">
-        <v>0</v>
-      </c>
-      <c r="U1001">
         <v>0</v>
       </c>
     </row>
